--- a/resources/data-imports/Affixes/stat_res_devouring.xlsx
+++ b/resources/data-imports/Affixes/stat_res_devouring.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">resistance_reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affix_type</t>
   </si>
   <si>
     <t xml:space="preserve">Deaths Gaze</t>
@@ -407,10 +410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL7" activeCellId="0" sqref="AL7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AS33" activeCellId="0" sqref="AS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,6 +452,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="16.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,16 +591,19 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>0</v>
@@ -665,7 +672,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="1" t="n">
         <v>0</v>
@@ -678,6 +685,9 @@
       </c>
       <c r="AS2" s="1" t="n">
         <v>0.01</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>0</v>
@@ -757,7 +767,7 @@
         <v>2141</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP3" s="1" t="n">
         <v>0</v>
@@ -770,6 +780,9 @@
       </c>
       <c r="AS3" s="1" t="n">
         <v>0.0122</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,10 +790,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>0</v>
@@ -849,7 +862,7 @@
         <v>4582</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP4" s="1" t="n">
         <v>0</v>
@@ -862,6 +875,9 @@
       </c>
       <c r="AS4" s="1" t="n">
         <v>0.0149</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>0</v>
@@ -941,7 +957,7 @@
         <v>9808</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP5" s="1" t="n">
         <v>0</v>
@@ -954,6 +970,9 @@
       </c>
       <c r="AS5" s="1" t="n">
         <v>0.0182</v>
+      </c>
+      <c r="AT5" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>0</v>
@@ -1033,7 +1052,7 @@
         <v>21000</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP6" s="1" t="n">
         <v>0</v>
@@ -1046,6 +1065,9 @@
       </c>
       <c r="AS6" s="1" t="n">
         <v>0.0223</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>0</v>
@@ -1125,7 +1147,7 @@
         <v>44900</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP7" s="1" t="n">
         <v>0</v>
@@ -1138,6 +1160,9 @@
       </c>
       <c r="AS7" s="1" t="n">
         <v>0.0272</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,10 +1170,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>0</v>
@@ -1217,7 +1242,7 @@
         <v>96200</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP8" s="1" t="n">
         <v>0</v>
@@ -1230,6 +1255,9 @@
       </c>
       <c r="AS8" s="1" t="n">
         <v>0.0332</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>0</v>
@@ -1309,7 +1337,7 @@
         <v>205900</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP9" s="1" t="n">
         <v>0</v>
@@ -1322,6 +1350,9 @@
       </c>
       <c r="AS9" s="1" t="n">
         <v>0.0406</v>
+      </c>
+      <c r="AT9" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>0</v>
@@ -1401,7 +1432,7 @@
         <v>440800</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP10" s="1" t="n">
         <v>0</v>
@@ -1414,6 +1445,9 @@
       </c>
       <c r="AS10" s="1" t="n">
         <v>0.0496</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,10 +1455,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>0</v>
@@ -1493,7 +1527,7 @@
         <v>943500</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP11" s="1" t="n">
         <v>0</v>
@@ -1506,6 +1540,9 @@
       </c>
       <c r="AS11" s="1" t="n">
         <v>0.0606</v>
+      </c>
+      <c r="AT11" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,10 +1550,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>0</v>
@@ -1585,7 +1622,7 @@
         <v>2019500</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP12" s="1" t="n">
         <v>0</v>
@@ -1598,6 +1635,9 @@
       </c>
       <c r="AS12" s="1" t="n">
         <v>0.0741</v>
+      </c>
+      <c r="AT12" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,10 +1645,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>0</v>
@@ -1677,7 +1717,7 @@
         <v>4322800</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP13" s="1" t="n">
         <v>0</v>
@@ -1690,6 +1730,9 @@
       </c>
       <c r="AS13" s="1" t="n">
         <v>0.0905</v>
+      </c>
+      <c r="AT13" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,10 +1740,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>0</v>
@@ -1769,7 +1812,7 @@
         <v>10451500</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP14" s="1" t="n">
         <v>0</v>
@@ -1782,6 +1825,9 @@
       </c>
       <c r="AS14" s="1" t="n">
         <v>0.1248</v>
+      </c>
+      <c r="AT14" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,10 +1835,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>0</v>
@@ -1861,7 +1907,7 @@
         <v>22600200</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP15" s="1" t="n">
         <v>0</v>
@@ -1874,6 +1920,9 @@
       </c>
       <c r="AS15" s="1" t="n">
         <v>0.1541</v>
+      </c>
+      <c r="AT15" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +1930,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>0</v>
@@ -1953,7 +2002,7 @@
         <v>48870200</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="1" t="n">
         <v>0</v>
@@ -1966,6 +2015,9 @@
       </c>
       <c r="AS16" s="1" t="n">
         <v>0.1901</v>
+      </c>
+      <c r="AT16" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,10 +2025,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>0</v>
@@ -2045,7 +2097,7 @@
         <v>105675800</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP17" s="1" t="n">
         <v>0</v>
@@ -2058,6 +2110,9 @@
       </c>
       <c r="AS17" s="1" t="n">
         <v>0.2347</v>
+      </c>
+      <c r="AT17" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,10 +2120,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>0</v>
@@ -2137,7 +2192,7 @@
         <v>228511100</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP18" s="1" t="n">
         <v>0</v>
@@ -2150,6 +2205,9 @@
       </c>
       <c r="AS18" s="1" t="n">
         <v>0.2896</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,10 +2215,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>0</v>
@@ -2229,7 +2287,7 @@
         <v>494127600</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP19" s="1" t="n">
         <v>0</v>
@@ -2242,6 +2300,9 @@
       </c>
       <c r="AS19" s="1" t="n">
         <v>0.3574</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,10 +2310,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>0</v>
@@ -2321,7 +2382,7 @@
         <v>1068490900</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP20" s="1" t="n">
         <v>0</v>
@@ -2334,6 +2395,9 @@
       </c>
       <c r="AS20" s="1" t="n">
         <v>0.4411</v>
+      </c>
+      <c r="AT20" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2405,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" s="1" t="n">
         <v>0</v>
@@ -2413,7 +2477,7 @@
         <v>2310481600</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP21" s="1" t="n">
         <v>0</v>
@@ -2426,6 +2490,9 @@
       </c>
       <c r="AS21" s="1" t="n">
         <v>0.5444</v>
+      </c>
+      <c r="AT21" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,10 +2500,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" s="1" t="n">
         <v>0</v>
@@ -2505,7 +2572,7 @@
         <v>4996135800</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP22" s="1" t="n">
         <v>0</v>
@@ -2518,6 +2585,9 @@
       </c>
       <c r="AS22" s="1" t="n">
         <v>0.6719</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,10 +2595,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" s="1" t="n">
         <v>0</v>
@@ -2597,7 +2667,7 @@
         <v>10803536500</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP23" s="1" t="n">
         <v>0</v>
@@ -2610,6 +2680,9 @@
       </c>
       <c r="AS23" s="1" t="n">
         <v>0.802</v>
+      </c>
+      <c r="AT23" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,10 +2690,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" s="1" t="n">
         <v>0</v>
@@ -2689,7 +2762,7 @@
         <v>23361334900</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP24" s="1" t="n">
         <v>0</v>
@@ -2702,6 +2775,9 @@
       </c>
       <c r="AS24" s="1" t="n">
         <v>0.804</v>
+      </c>
+      <c r="AT24" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,10 +2785,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="1" t="n">
         <v>0</v>
@@ -2781,7 +2857,7 @@
         <v>40000000000</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP25" s="1" t="n">
         <v>0</v>
@@ -2794,6 +2870,9 @@
       </c>
       <c r="AS25" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="AT25" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
